--- a/biology/Zoologie/Animalia_(série_télévisée_d'animation)/Animalia_(série_télévisée_d'animation).xlsx
+++ b/biology/Zoologie/Animalia_(série_télévisée_d'animation)/Animalia_(série_télévisée_d'animation).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Animalia_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+          <t>Animalia_(série_télévisée_d'animation)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Animalia est une série télévisée d'animation australienne en quarante épisodes de 23 minutes réalisée par David Scott d'après les livres de Graeme Base, et diffusée entre le 11 novembre 2007 et le 7 novembre 2008 sur Network Ten.
 En France, elle a été diffusée sur France 5 dans les émissions Debout les Zouzous et Midi les Zouzous en 2008.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Animalia_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+          <t>Animalia_(série_télévisée_d'animation)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un monde parallèle, des animaux parlent et vivent en harmonie grâce au Cœur, une énorme boule d'énergie. Mais le Cœur commence à se fissurer et les pépites qui le composent sont projetées aux quatre coins d'Animalia, remettant en cause la paix entre les animaux. Puis arrivent Alex et Zoé, deux enfants, projetés dans ce monde merveilleux à travers un portail magique, qui vont avoir une mission capitale : retrouver toutes les pépites et sauver Animalia.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Animalia_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+          <t>Animalia_(série_télévisée_d'animation)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,17 +559,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Voix originales anglaises
-Brooke Mikey Anderson : Alex
+          <t>Voix originales anglaises</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Brooke Mikey Anderson : Alex
 Katie Leigh : Zoé
 R. Martin Klein : Iggy
 Kate Higgins : Allegra
 Dean O'Gorman : Tyrannicus
 Chris Hobbs : Livingstone T. Lion
 Peta Johnson : Reenie
-Joey Lotsko : La vigne
-Voix françaises
-Patrick Guillemin : Tigrannicus / Moumoute
+Joey Lotsko : La vigne</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Animalia_(série_télévisée_d'animation)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Animalia_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution des voix</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Patrick Guillemin : Tigrannicus / Moumoute
 Saïd Amadis : Drago
 Camille Donda : Allegra
 Stéphane Ronchewski : G'Bubu / Blaise la Crapule / Aimé Delagomme / Zig
@@ -568,31 +621,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Animalia_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Animalia_(série_télévisée_d'animation)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Animalia_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Alex : Garçon blond portant un pull jaune rayé et un jean bleu. Il arrive à Animalia par hasard avec Zoé. Passionné de dessin et de lecture, il prend part avec enthousiasme à la quête des pépites. Il se dispute parfois avec Zoé, mais le duo reste soudé et inséparable dans les moments difficiles. Il est le plus calme des deux enfants et a une capacité à voir les portails, pourtant cachés aux yeux des autres.
 Zoé : Jeune fille brune portant un t-shirt rouge et un pantalon vert. Elle rencontre Alex par accident et le suit tout aussi accidentellement à Animalia. Peu encline à rester au début, elle finit par prendre part à la quête des pépites avec ses nouveaux amis et à trouver sa place dans la communauté d’Animalia. Très bavarde et parfois moqueuse, elle a toutefois de formidables talents de conteuse et d’écrivaine. Elle se dispute souvent avec Tigrannicus.
@@ -615,33 +670,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Animalia_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Animalia_(série_télévisée_d'animation)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Animalia_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Première saison
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Première saison</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La découverte (Hello, We Must Be Going en vo)
 Le vent de non-retour (Goodbye, We Must Be Staying en vo)
 Le brouillard du temps (The Mist of Time en vo)
@@ -660,7 +721,43 @@
 Le bout du tunnel (Tunnel Vision en vo)
 Caméléon (Iggy's Quest en vo)
 Trouver le bon mot (What's the Good Word? en vo)
-Deuxième saison
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Animalia_(série_télévisée_d'animation)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Animalia_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Deuxième saison</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le tour d’Alex (Alex's Secret Code en vo)
 Sifflements dans la nuit (Whistling in the Dark en vo)
 Le comité du cœur (The Call to Action en vo)
